--- a/28_suppliers_share_of_sales.xlsx
+++ b/28_suppliers_share_of_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Dokumenty\electrical_wholesale_database\query_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE1A83-7168-4121-948F-967A5178F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DAE1E1-4634-42DB-93A9-C8FAD634D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suppliers_share_of_sales" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,1570 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Percentage share of suppliers in sales</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>suppliers_share_of_sales!$A$2:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Deccan Dynamics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TajTech Enterprises</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CurryCraft Technologies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SpiceRoute Innovations</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rajasthan Robotics</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mumbai Dynamics</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bengal Tiger Technologies</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Golden Gate Innovations</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mumbai Mavericks</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kerala KeyTech</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Chennai Innovations</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ganges Solutions</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Saffron Systems</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TechGuru Innovations</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Himalayan Ventures</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jaipur Junction Enterprises</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Chennai Chariot Technologies</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Future Solutions sp. z o. o.</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Goa Global Ventures</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Kerala Keynote Innovations</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Bengaluru Breezeway Solutions</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Mumbai Mirage Enterprises</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Delhi Data Dynamics</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TajTrek Technologies</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Goa Gateway Technologies</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Bangalore Blossom Solutions</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Delhi Dunes Innovations</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SpiceTech Solutions</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Bangalore Bytes</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>CurryCode Innovators</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Hyderabad Horizons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>suppliers_share_of_sales!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.1231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-755A-4E07-86C2-D38EDD87BDCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACEB9D6-24D0-F963-AFF7-C01B64659903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,16 +2104,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B32"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +2129,7 @@
         <v>0.1231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,7 +2137,7 @@
         <v>0.1007</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,7 +2145,7 @@
         <v>7.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +2153,7 @@
         <v>6.2400000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -597,7 +2161,7 @@
         <v>5.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -605,7 +2169,7 @@
         <v>5.1399999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,7 +2177,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,7 +2185,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -629,7 +2193,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -637,7 +2201,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,7 +2209,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -653,7 +2217,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -661,7 +2225,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -669,7 +2233,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -677,7 +2241,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -685,7 +2249,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -693,7 +2257,7 @@
         <v>2.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -701,7 +2265,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -709,7 +2273,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -717,7 +2281,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -725,7 +2289,7 @@
         <v>1.5700000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -733,7 +2297,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -741,7 +2305,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -749,7 +2313,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -757,7 +2321,7 @@
         <v>1.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -765,7 +2329,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -773,7 +2337,7 @@
         <v>7.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -781,7 +2345,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -789,7 +2353,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -797,7 +2361,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -807,6 +2371,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -816,9 +2382,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
